--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>0.2228193351616666</v>
+        <v>0.2128452517027778</v>
       </c>
       <c r="R2">
-        <v>2.005374016455</v>
+        <v>1.915607265325</v>
       </c>
       <c r="S2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="T2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,25 +623,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
-        <v>0.620349622086111</v>
+        <v>0.6203496220861111</v>
       </c>
       <c r="R3">
         <v>5.583146598775</v>
       </c>
       <c r="S3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="T3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>0.1771808520094445</v>
+        <v>0.3112057065455556</v>
       </c>
       <c r="R4">
-        <v>1.594627668085</v>
+        <v>2.80085135891</v>
       </c>
       <c r="S4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="T4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>0.05472002830555555</v>
+        <v>0.04509780491166667</v>
       </c>
       <c r="R5">
-        <v>0.49248025475</v>
+        <v>0.405880244205</v>
       </c>
       <c r="S5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="T5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>0.2331175760577778</v>
+        <v>0.1695339360527778</v>
       </c>
       <c r="R6">
-        <v>2.09805818452</v>
+        <v>1.525805424475</v>
       </c>
       <c r="S6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="T6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
     </row>
   </sheetData>
